--- a/knowledge_base.xlsx
+++ b/knowledge_base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhishekk\OneDrive - toshiba\Documents\Work\OPM\OPM2025B\Code\Test 1\UseCaseGen-08\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBCBBB3-1BF6-491A-9D90-91F5CB14E888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B86D94-C264-4BD1-89AD-DA3A6E3AABE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Access Code</t>
   </si>
@@ -70,6 +70,21 @@
   </si>
   <si>
     <t>TCP/IP</t>
+  </si>
+  <si>
+    <t>NW-621</t>
+  </si>
+  <si>
+    <t>Network Protocol for 621</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>NW-622</t>
+  </si>
+  <si>
+    <t>Network Protocol for 622</t>
   </si>
 </sst>
 </file>
@@ -394,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A7" sqref="A7:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -492,6 +507,34 @@
         <v>14</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
